--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T12:19:16+00:00</t>
+    <t>2026-01-15T13:05:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -461,7 +461,7 @@
 </t>
   </si>
   <si>
-    <t>ANCExamination.symphysisFundalHeightSfh</t>
+    <t>ANCExamination.symphysisFundalHeight</t>
   </si>
   <si>
     <t>ANC - ANC.B8. Symphysis-fundal height (SFH)</t>
@@ -491,7 +491,7 @@
 </t>
   </si>
   <si>
-    <t>ANCExamination.otherAbnormalPelvicVisualResultSpecify</t>
+    <t>ANCExamination.otherAbnormalPelvicResult</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -515,7 +515,7 @@
 </t>
   </si>
   <si>
-    <t>ANCExamination.otherFetalPresentationSpecify</t>
+    <t>ANCExamination.otherFetalPresentation</t>
   </si>
   <si>
     <t>ANC - ANC.B8. Other fetal presentation (specify)</t>
@@ -777,7 +777,7 @@
 </t>
   </si>
   <si>
-    <t>ANCExamination.ancGestationalAgeAtVisitAnc</t>
+    <t>ANCExamination.gestationalAgeAtVisitAnc</t>
   </si>
   <si>
     <t>ANC - ANC.B8. Gestational age at today's visit_ANC</t>
@@ -857,7 +857,7 @@
 </t>
   </si>
   <si>
-    <t>ANCExamination.1stAncOrAScheduledVisit</t>
+    <t>ANCExamination.firstAncOrAScheduledVisit</t>
   </si>
   <si>
     <t>ANC - ANC.B5. Regular ANC / Scheduled visit?</t>
@@ -1099,10 +1099,10 @@
 </t>
   </si>
   <si>
-    <t>ANCRegistry.womanSProfileAndHistory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hispethiopia.org/enable/StructureDefinition/WomanSProfileAndHistory
+    <t>ANCRegistry.womansProfileAndHistory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://hispethiopia.org/enable/StructureDefinition/WomansProfileAndHistory
 </t>
   </si>
   <si>
@@ -3452,13 +3452,13 @@
 </t>
   </si>
   <si>
-    <t>WomanSProfileAndHistory</t>
-  </si>
-  <si>
-    <t>https://hispethiopia.org/enable/StructureDefinition/WomanSProfileAndHistory</t>
-  </si>
-  <si>
-    <t>WomanSProfileAndHistory.alcohol</t>
+    <t>WomansProfileAndHistory</t>
+  </si>
+  <si>
+    <t>https://hispethiopia.org/enable/StructureDefinition/WomansProfileAndHistory</t>
+  </si>
+  <si>
+    <t>WomansProfileAndHistory.alcohol</t>
   </si>
   <si>
     <t>ANC - ANC.B6. Alcohol</t>
@@ -3468,7 +3468,7 @@
 </t>
   </si>
   <si>
-    <t>WomanSProfileAndHistory.historyEarlyNeonatalDeathBtwn07daysofbirth</t>
+    <t>WomansProfileAndHistory.historyEarlyNeonatalDeathBtwn07daysofbirth</t>
   </si>
   <si>
     <t>ANC - ANC.B6. History of Early Neonatal Death (between 0 and 7 days of birth)</t>
@@ -3478,7 +3478,7 @@
 </t>
   </si>
   <si>
-    <t>WomanSProfileAndHistory.diabetes</t>
+    <t>WomansProfileAndHistory.diabetes</t>
   </si>
   <si>
     <t>ANC - ANC.B6. Diabetes</t>
@@ -3488,7 +3488,7 @@
 </t>
   </si>
   <si>
-    <t>WomanSProfileAndHistory.eclampsiaConvulsions</t>
+    <t>WomansProfileAndHistory.eclampsiaConvulsions</t>
   </si>
   <si>
     <t>ANC - ANC.B6. Eclampsia/Convulsions</t>
@@ -3498,7 +3498,7 @@
 </t>
   </si>
   <si>
-    <t>WomanSProfileAndHistory.expectedDateOfDeliveryEdd</t>
+    <t>WomansProfileAndHistory.expectedDateOfDeliveryEdd</t>
   </si>
   <si>
     <t>ANC - ANC.B6. Expected date of delivery (EDD)</t>
@@ -3508,7 +3508,7 @@
 </t>
   </si>
   <si>
-    <t>WomanSProfileAndHistory.ancGestationalAge</t>
+    <t>WomansProfileAndHistory.ancGestationalAge</t>
   </si>
   <si>
     <t>ANC - ANC.B6. Gestational age</t>
@@ -3518,7 +3518,7 @@
 </t>
   </si>
   <si>
-    <t>WomanSProfileAndHistory.historyOfBigBabyDelivery4Kg</t>
+    <t>WomansProfileAndHistory.historyOfBigBabyDelivery4Kg</t>
   </si>
   <si>
     <t>ANC - ANC History of big baby delivery ( &gt; 4 kg)</t>
@@ -3528,7 +3528,7 @@
 </t>
   </si>
   <si>
-    <t>WomanSProfileAndHistory.hivStatusProfile</t>
+    <t>WomansProfileAndHistory.hivStatusProfile</t>
   </si>
   <si>
     <t>ANC - ANC.B6. HIV status profile</t>
@@ -3541,7 +3541,7 @@
 </t>
   </si>
   <si>
-    <t>WomanSProfileAndHistory.myomectomy</t>
+    <t>WomansProfileAndHistory.myomectomy</t>
   </si>
   <si>
     <t>ANC - ANC Myomectomy</t>
@@ -3551,7 +3551,7 @@
 </t>
   </si>
   <si>
-    <t>WomanSProfileAndHistory.hypertension</t>
+    <t>WomansProfileAndHistory.hypertension</t>
   </si>
   <si>
     <t>ANC - ANC.B6. Hypertension</t>
@@ -3561,7 +3561,7 @@
 </t>
   </si>
   <si>
-    <t>WomanSProfileAndHistory.cardiacCondition</t>
+    <t>WomansProfileAndHistory.cardiacCondition</t>
   </si>
   <si>
     <t>ANC - ANC Cardiac condition</t>
@@ -3571,7 +3571,7 @@
 </t>
   </si>
   <si>
-    <t>WomanSProfileAndHistory.kidneyDiseaseChronicRenalFailure</t>
+    <t>WomansProfileAndHistory.kidneyDiseaseChronicRenalFailure</t>
   </si>
   <si>
     <t>ANC - ANC.B6. Kidney disease (Chronic Renal Failure)</t>
@@ -3581,7 +3581,7 @@
 </t>
   </si>
   <si>
-    <t>WomanSProfileAndHistory.lnmpDate</t>
+    <t>WomansProfileAndHistory.lnmpDate</t>
   </si>
   <si>
     <t>ANC - ANC.B6. Last normal menstrual period (LNMP) date</t>
@@ -3591,7 +3591,7 @@
 </t>
   </si>
   <si>
-    <t>WomanSProfileAndHistory.clinicalEstimationPalpationFundalHeightDate</t>
+    <t>WomansProfileAndHistory.clinicalEstimationPalpationFundalHeightDate</t>
   </si>
   <si>
     <t>ANC - ANC.B6. Clinical estimation (Palpation/fundal height) date</t>
@@ -3601,7 +3601,7 @@
 </t>
   </si>
   <si>
-    <t>WomanSProfileAndHistory.malariaMedicationSulfadoxinePyrimethamine</t>
+    <t>WomansProfileAndHistory.malariaMedicationSulfadoxinePyrimethamine</t>
   </si>
   <si>
     <t>ANC - ANC.B6. Malaria medication (sulfadoxine-pyrimethamine)</t>
@@ -3611,7 +3611,7 @@
 </t>
   </si>
   <si>
-    <t>WomanSProfileAndHistory.ancPara</t>
+    <t>WomansProfileAndHistory.ancPara</t>
   </si>
   <si>
     <t>ANC - ANC.B6. Para</t>
@@ -3621,7 +3621,7 @@
 </t>
   </si>
   <si>
-    <t>WomanSProfileAndHistory.numberOfPregnanciesGravida</t>
+    <t>WomansProfileAndHistory.numberOfPregnanciesGravida</t>
   </si>
   <si>
     <t>ANC - ANC.B6. Number of pregnancies (gravida)</t>
@@ -3631,10 +3631,10 @@
 </t>
   </si>
   <si>
-    <t>WomanSProfileAndHistory.ancB6UltrasoundGa</t>
-  </si>
-  <si>
-    <t>WomanSProfileAndHistory.noAlcoholAndOrSubstances</t>
+    <t>WomansProfileAndHistory.ultrasoundGa</t>
+  </si>
+  <si>
+    <t>WomansProfileAndHistory.noAlcoholAndOrSubstances</t>
   </si>
   <si>
     <t>ANC - ANC.B6. No alcohol and/or substances</t>
@@ -3644,7 +3644,7 @@
 </t>
   </si>
   <si>
-    <t>WomanSProfileAndHistory.noChronicOrPastHealthConditions</t>
+    <t>WomansProfileAndHistory.noChronicOrPastHealthConditions</t>
   </si>
   <si>
     <t>ANC - ANC.B6. No chronic or past health conditions</t>
@@ -3654,7 +3654,7 @@
 </t>
   </si>
   <si>
-    <t>WomanSProfileAndHistory.noKnownAllergies</t>
+    <t>WomansProfileAndHistory.noKnownAllergies</t>
   </si>
   <si>
     <t>ANC - ANC.B6. No known allergies</t>
@@ -3664,7 +3664,7 @@
 </t>
   </si>
   <si>
-    <t>WomanSProfileAndHistory.noKnownPastSurgeries</t>
+    <t>WomansProfileAndHistory.noKnownPastSurgeries</t>
   </si>
   <si>
     <t>ANC - ANC.B6. No known past surgeries</t>
@@ -3674,7 +3674,7 @@
 </t>
   </si>
   <si>
-    <t>WomanSProfileAndHistory.noMedications</t>
+    <t>WomansProfileAndHistory.noMedications</t>
   </si>
   <si>
     <t>ANC - ANC.B6. No medications</t>
@@ -3684,7 +3684,7 @@
 </t>
   </si>
   <si>
-    <t>WomanSProfileAndHistory.noPastPregnancyComplications</t>
+    <t>WomansProfileAndHistory.noPastPregnancyComplications</t>
   </si>
   <si>
     <t>ANC - ANC.B6. No past pregnancy complications</t>
@@ -3694,7 +3694,7 @@
 </t>
   </si>
   <si>
-    <t>WomanSProfileAndHistory.numberOfCaesareanSections</t>
+    <t>WomansProfileAndHistory.numberOfCaesareanSections</t>
   </si>
   <si>
     <t>ANC - ANC.B6. Number of caesarean sections</t>
@@ -3704,7 +3704,7 @@
 </t>
   </si>
   <si>
-    <t>WomanSProfileAndHistory.numberOfAbortions</t>
+    <t>WomansProfileAndHistory.numberOfAbortions</t>
   </si>
   <si>
     <t>ANC - ANC.B6. Number of abortions</t>
@@ -3714,7 +3714,7 @@
 </t>
   </si>
   <si>
-    <t>WomanSProfileAndHistory.numberOfStillbirthsFsdAndOrMsd</t>
+    <t>WomansProfileAndHistory.numberOfStillbirthsFsdAndOrMsd</t>
   </si>
   <si>
     <t>ANC - ANC.B6. Number of stillbirths (FSD and/or MSD)</t>
@@ -3724,7 +3724,7 @@
 </t>
   </si>
   <si>
-    <t>WomanSProfileAndHistory.otherAllergiesSpecify</t>
+    <t>WomansProfileAndHistory.otherAllergiesSpecify</t>
   </si>
   <si>
     <t>ANC - ANC.B6. Other allergies (specify)</t>
@@ -3734,7 +3734,7 @@
 </t>
   </si>
   <si>
-    <t>WomanSProfileAndHistory.otherGynecologicalProceduresSpecify</t>
+    <t>WomansProfileAndHistory.otherGynecologicalProceduresSpecify</t>
   </si>
   <si>
     <t>ANC - ANC.B6. Other gynecological procedures (specify)</t>
@@ -3744,7 +3744,7 @@
 </t>
   </si>
   <si>
-    <t>WomanSProfileAndHistory.medicationsSpecify</t>
+    <t>WomansProfileAndHistory.medicationsSpecify</t>
   </si>
   <si>
     <t>ANC - ANC.B6. Medications (specify)</t>
@@ -3754,7 +3754,7 @@
 </t>
   </si>
   <si>
-    <t>WomanSProfileAndHistory.otherPastPregnancyProblemsSpecify</t>
+    <t>WomansProfileAndHistory.otherPastPregnancyProblemsSpecify</t>
   </si>
   <si>
     <t>ANC - ANC.B6. Other past pregnancy problems (specify)</t>
@@ -3764,7 +3764,7 @@
 </t>
   </si>
   <si>
-    <t>WomanSProfileAndHistory.otherConditionsSpecify</t>
+    <t>WomansProfileAndHistory.otherConditionsSpecify</t>
   </si>
   <si>
     <t>ANC - ANC.B6. Other (specify)</t>
@@ -3774,7 +3774,7 @@
 </t>
   </si>
   <si>
-    <t>WomanSProfileAndHistory.otherSubstanceUseSpecify</t>
+    <t>WomansProfileAndHistory.otherSubstanceUseSpecify</t>
   </si>
   <si>
     <t>ANC - ANC.B6. Other substance use (specify)</t>
@@ -3784,7 +3784,7 @@
 </t>
   </si>
   <si>
-    <t>WomanSProfileAndHistory.otherSurgeriesSpecify</t>
+    <t>WomansProfileAndHistory.otherSurgeriesSpecify</t>
   </si>
   <si>
     <t>ANC - ANC.B6. Other surgeries (specify)</t>
@@ -3794,7 +3794,7 @@
 </t>
   </si>
   <si>
-    <t>WomanSProfileAndHistory.preEclampsia</t>
+    <t>WomansProfileAndHistory.preEclampsia</t>
   </si>
   <si>
     <t>ANC - ANC.B6. Pre-eclampsia</t>
@@ -3804,7 +3804,7 @@
 </t>
   </si>
   <si>
-    <t>WomanSProfileAndHistory.sourceOfGestationalAge</t>
+    <t>WomansProfileAndHistory.sourceOfGestationalAge</t>
   </si>
   <si>
     <t>ANC - ANC.B6. Source of gestational age</t>
@@ -3817,7 +3817,7 @@
 </t>
   </si>
   <si>
-    <t>WomanSProfileAndHistory.tobaccoUse</t>
+    <t>WomansProfileAndHistory.tobaccoUse</t>
   </si>
   <si>
     <t>ANC - ANC.B6. Tobacco use</t>
@@ -3827,7 +3827,7 @@
 </t>
   </si>
   <si>
-    <t>WomanSProfileAndHistory.ultrasoundDate</t>
+    <t>WomansProfileAndHistory.ultrasoundDate</t>
   </si>
   <si>
     <t>ANC - ANC.B6. Ultrasound date</t>
@@ -3837,7 +3837,7 @@
 </t>
   </si>
   <si>
-    <t>WomanSProfileAndHistory.clinicallyEstimatedGestationalAge</t>
+    <t>WomansProfileAndHistory.clinicallyEstimatedGestationalAge</t>
   </si>
   <si>
     <t>ANC.B6. Clinically estimated gestational age</t>
@@ -3847,7 +3847,7 @@
 </t>
   </si>
   <si>
-    <t>WomanSProfileAndHistory.ancHeight</t>
+    <t>WomansProfileAndHistory.height</t>
   </si>
   <si>
     <t>ANC - ANC.B8. Height</t>
@@ -3857,7 +3857,7 @@
 </t>
   </si>
   <si>
-    <t>WomanSProfileAndHistory.preGestationalWeight</t>
+    <t>WomansProfileAndHistory.preGestationalWeight</t>
   </si>
   <si>
     <t>ANC - ANC.B8. Pre-gestational weight</t>
@@ -3867,7 +3867,7 @@
 </t>
   </si>
   <si>
-    <t>WomanSProfileAndHistory.bmi</t>
+    <t>WomansProfileAndHistory.bmi</t>
   </si>
   <si>
     <t>ANC - ANC.B8. BMI</t>
@@ -3877,7 +3877,7 @@
 </t>
   </si>
   <si>
-    <t>WomanSProfileAndHistory.weightCategory</t>
+    <t>WomansProfileAndHistory.weightCategory</t>
   </si>
   <si>
     <t>ANC - ANC.B8. Weight category</t>
@@ -3890,7 +3890,7 @@
 </t>
   </si>
   <si>
-    <t>WomanSProfileAndHistory.reviewAndConfirmComputedBmi</t>
+    <t>WomansProfileAndHistory.reviewAndConfirmComputedBmi</t>
   </si>
   <si>
     <t>ANC - ANC.B8a. Review and confirm computed BMI</t>
@@ -3900,7 +3900,7 @@
 </t>
   </si>
   <si>
-    <t>WomanSProfileAndHistory.expectedWeightGain</t>
+    <t>WomansProfileAndHistory.expectedWeightGain</t>
   </si>
   <si>
     <t>ANC - ANC.B8. Expected weight gain</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T13:05:29+00:00</t>
+    <t>2026-01-15T13:53:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -827,7 +827,7 @@
 </t>
   </si>
   <si>
-    <t>ANCExamination.ancVisitNumber</t>
+    <t>ANCExamination.visitNumber</t>
   </si>
   <si>
     <t>ANC - ANC Visit Number</t>
@@ -1168,7 +1168,7 @@
     <t>https://hispethiopia.org/enable/StructureDefinition/LaboratoryTestsAndImaging</t>
   </si>
   <si>
-    <t xml:space="preserve">Laboratory Tests and Imaging </t>
+    <t>Laboratory Tests and Imaging</t>
   </si>
   <si>
     <t>LaboratoryTestsAndImaging.randomBloodSugarResult</t>
@@ -1274,7 +1274,7 @@
 </t>
   </si>
   <si>
-    <t>LaboratoryTestsAndImaging.otherTestSDate</t>
+    <t>LaboratoryTestsAndImaging.otherTestsDate</t>
   </si>
   <si>
     <t>ANC - ANC.B9.  Other test(s) date</t>
@@ -1284,7 +1284,7 @@
 </t>
   </si>
   <si>
-    <t>LaboratoryTestsAndImaging.otherTestSName</t>
+    <t>LaboratoryTestsAndImaging.otherTestsName</t>
   </si>
   <si>
     <t>ANC - ANC.B9.  Other test(s) name</t>
@@ -1294,7 +1294,7 @@
 </t>
   </si>
   <si>
-    <t>LaboratoryTestsAndImaging.otherTestSResultS</t>
+    <t>LaboratoryTestsAndImaging.otherTestsResults</t>
   </si>
   <si>
     <t>ANC - ANC.B9.   Other test(s) result(s)</t>
@@ -1591,7 +1591,7 @@
 </t>
   </si>
   <si>
-    <t>LaboratoryTestsAndImaging.ancLabSickleCell</t>
+    <t>LaboratoryTestsAndImaging.labSickleCell</t>
   </si>
   <si>
     <t>ANC - ANC LAB Sickle cell</t>
@@ -1604,7 +1604,7 @@
 </t>
   </si>
   <si>
-    <t>LaboratoryTestsAndImaging.ancB6UltrasoundGa</t>
+    <t>LaboratoryTestsAndImaging.ultrasoundGa</t>
   </si>
   <si>
     <t>ANC - ANC.B6 Ultrasound GA</t>
@@ -1667,7 +1667,7 @@
 </t>
   </si>
   <si>
-    <t>LaboratoryTestsAndImaging.ancB9DeUrineDipstickTestDate</t>
+    <t>LaboratoryTestsAndImaging.urineDipstickTestDate</t>
   </si>
   <si>
     <t>ANC - ANC B9.DE Urine dipstick test date</t>
@@ -1750,7 +1750,7 @@
 </t>
   </si>
   <si>
-    <t>LaboratoryTestsAndImaging.ancGestationalAgeAtVisitLab</t>
+    <t>LaboratoryTestsAndImaging.gestationalAgeAtVisitLab</t>
   </si>
   <si>
     <t>ANC - ANC.B8. Gestational age at todays visit_LAB</t>
@@ -2146,7 +2146,7 @@
     <t>https://hispethiopia.org/enable/StructureDefinition/PregnancyOutcome</t>
   </si>
   <si>
-    <t>PregnancyOutcome.ancEnd1PregnancyOutcome</t>
+    <t>PregnancyOutcome.pregnancyOutcome</t>
   </si>
   <si>
     <t>ANC - ANC.End1. Pregnancy outcome</t>
@@ -2265,7 +2265,7 @@
 </t>
   </si>
   <si>
-    <t>PregnancyOutcome.ancOutArvRxForMothersByType</t>
+    <t>PregnancyOutcome.arvRxForMothersByType</t>
   </si>
   <si>
     <t>ANC - ANC.BD ARV Rx for Mothers (by type)</t>
@@ -2275,7 +2275,7 @@
 </t>
   </si>
   <si>
-    <t>PregnancyOutcome.ancOutObstProlgLabour</t>
+    <t>PregnancyOutcome.obstProlgLabour</t>
   </si>
   <si>
     <t>ANC - ANC.BD Obst/prolg labour</t>
@@ -2285,7 +2285,7 @@
 </t>
   </si>
   <si>
-    <t>PregnancyOutcome.ancOutHysterectomy</t>
+    <t>PregnancyOutcome.hysterectomy</t>
   </si>
   <si>
     <t xml:space="preserve">ANC - ANC.BD Hysterectomy </t>
@@ -2298,7 +2298,7 @@
 </t>
   </si>
   <si>
-    <t>PregnancyOutcome.ancOutManaged</t>
+    <t>PregnancyOutcome.managed</t>
   </si>
   <si>
     <t>ANC - ANC.BD Managed</t>
@@ -2308,7 +2308,7 @@
 </t>
   </si>
   <si>
-    <t>PregnancyOutcome.ancOutPromSepsis</t>
+    <t>PregnancyOutcome.promSepsis</t>
   </si>
   <si>
     <t>ANC - ANC.BD PROM/Sepsis</t>
@@ -2318,7 +2318,7 @@
 </t>
   </si>
   <si>
-    <t>PregnancyOutcome.ancOutReferred</t>
+    <t>PregnancyOutcome.referred</t>
   </si>
   <si>
     <t>ANC - ANC.BD Referred</t>
@@ -2328,7 +2328,7 @@
 </t>
   </si>
   <si>
-    <t>PregnancyOutcome.ancOutRepaired</t>
+    <t>PregnancyOutcome.repaired</t>
   </si>
   <si>
     <t>ANC - ANC.BD Repaired</t>
@@ -2338,7 +2338,7 @@
 </t>
   </si>
   <si>
-    <t>PregnancyOutcome.bdOtherReasonForPregnancyOutcome</t>
+    <t>PregnancyOutcome.otherReasonForPregnancyOutcome</t>
   </si>
   <si>
     <t>ANC - AND.BD-Other Reason for Pregnancy Outcome</t>
@@ -2351,7 +2351,7 @@
 </t>
   </si>
   <si>
-    <t>PregnancyOutcome.ancOutEclampsiaPostpartumHemorrhage</t>
+    <t>PregnancyOutcome.eclampsiaPostpartumHemorrhage</t>
   </si>
   <si>
     <t xml:space="preserve">ANC - ANC.BD Eclampsia postpartum hemorrhage </t>
@@ -2364,7 +2364,7 @@
 </t>
   </si>
   <si>
-    <t>PregnancyOutcome.ancOutRupturedUx</t>
+    <t>PregnancyOutcome.rupturedUx</t>
   </si>
   <si>
     <t>ANC - ANC.BD Ruptured Ux</t>
@@ -2374,7 +2374,7 @@
 </t>
   </si>
   <si>
-    <t>PregnancyOutcome.ancOutEclampsiaAntepartumHemorrhage</t>
+    <t>PregnancyOutcome.eclampsiaAntepartumHemorrhage</t>
   </si>
   <si>
     <t xml:space="preserve">ANC - ANC.BD Eclampsia antepartum hemorrhage </t>
@@ -2397,7 +2397,7 @@
 </t>
   </si>
   <si>
-    <t>PregnancyOutcome.arvPxForNewBortn</t>
+    <t>PregnancyOutcome.pxForNewBortn</t>
   </si>
   <si>
     <t>ANC - ANC.BD ARV Px for New Born (By type, HIV)</t>
@@ -3442,7 +3442,7 @@
 </t>
   </si>
   <si>
-    <t>PromotionAndTreatment.ancGestationalAgeAtVisitCat</t>
+    <t>PromotionAndTreatment.gestationalAgeAtVisitCat</t>
   </si>
   <si>
     <t>ANC - ANC.B8. Gestational age at todays visit_CAT</t>
